--- a/DBMS/혼자서도잘해요 테이블명세(2021-07-08).xlsx
+++ b/DBMS/혼자서도잘해요 테이블명세(2021-07-08).xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <x:bookViews>
-    <x:workbookView xWindow="0" yWindow="0" windowWidth="22788" windowHeight="8652" activeTab="5"/>
+    <x:workbookView xWindow="0" yWindow="0" windowWidth="22788" windowHeight="8652" activeTab="1"/>
   </x:bookViews>
   <x:sheets>
     <x:sheet name="회원테이블" sheetId="1" r:id="rId4"/>
@@ -26,180 +26,261 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <x:sst xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="307" uniqueCount="106">
   <x:si>
+    <x:t>tbl_comment</x:t>
+  </x:si>
+  <x:si>
+    <x:t>board_name</x:t>
+  </x:si>
+  <x:si>
+    <x:t>file_num</x:t>
+  </x:si>
+  <x:si>
+    <x:t>가변문자열(30)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>content_num</x:t>
+  </x:si>
+  <x:si>
+    <x:t>가변문자열(20)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>VARCHAR(20)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>tbl_content</x:t>
+  </x:si>
+  <x:si>
+    <x:t>comment_num</x:t>
+  </x:si>
+  <x:si>
+    <x:t>board_code</x:t>
+  </x:si>
+  <x:si>
+    <x:t>scrap_num</x:t>
+  </x:si>
+  <x:si>
+    <x:t>FK 테이블 이름</x:t>
+  </x:si>
+  <x:si>
+    <x:t>tbl_file</x:t>
+  </x:si>
+  <x:si>
+    <x:t>scrap_date</x:t>
+  </x:si>
+  <x:si>
+    <x:t>tbl_scrap</x:t>
+  </x:si>
+  <x:si>
+    <x:t>VARCHAR(30)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>file_name</x:t>
+  </x:si>
+  <x:si>
+    <x:t>tbl_board</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve"> CHAR(4)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>TI-1,TI-2</x:t>
+  </x:si>
+  <x:si>
+    <x:t>PRIMARY KEY</x:t>
+  </x:si>
+  <x:si>
+    <x:t>VARCHAR(10)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>C0000001</x:t>
+  </x:si>
+  <x:si>
+    <x:t>가변문자열(10)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>member_pw</x:t>
+  </x:si>
+  <x:si>
+    <x:t>NOT NULL</x:t>
+  </x:si>
+  <x:si>
+    <x:t>고정문자열(4)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>tbl_member</x:t>
+  </x:si>
+  <x:si>
+    <x:t>member_id</x:t>
+  </x:si>
+  <x:si>
+    <x:t>CM0000001</x:t>
+  </x:si>
+  <x:si>
+    <x:t>가변문자열(2000)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>S0000001</x:t>
+  </x:si>
+  <x:si>
+    <x:t>가변문자열(500)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>가변문자열(125)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>member_num</x:t>
+  </x:si>
+  <x:si>
+    <x:t>글내용</x:t>
+  </x:si>
+  <x:si>
+    <x:t>INT</x:t>
+  </x:si>
+  <x:si>
     <x:t>글번호</x:t>
   </x:si>
   <x:si>
     <x:t>숫자형</x:t>
   </x:si>
   <x:si>
-    <x:t>INT</x:t>
+    <x:t>아이디</x:t>
+  </x:si>
+  <x:si>
+    <x:t>기본키</x:t>
+  </x:si>
+  <x:si>
+    <x:t>추천수</x:t>
   </x:si>
   <x:si>
     <x:t>비고</x:t>
   </x:si>
   <x:si>
+    <x:t>조회수</x:t>
+  </x:si>
+  <x:si>
+    <x:t>NO</x:t>
+  </x:si>
+  <x:si>
+    <x:t>이메일</x:t>
+  </x:si>
+  <x:si>
+    <x:t>닉네임</x:t>
+  </x:si>
+  <x:si>
     <x:t>글제목</x:t>
   </x:si>
   <x:si>
-    <x:t>추천수</x:t>
-  </x:si>
-  <x:si>
-    <x:t>아이디</x:t>
+    <x:t>작성일</x:t>
   </x:si>
   <x:si>
     <x:t>파일명</x:t>
   </x:si>
   <x:si>
-    <x:t>기본키</x:t>
-  </x:si>
-  <x:si>
-    <x:t>조회수</x:t>
-  </x:si>
-  <x:si>
-    <x:t>작성일</x:t>
-  </x:si>
-  <x:si>
-    <x:t>이메일</x:t>
-  </x:si>
-  <x:si>
-    <x:t>글내용</x:t>
-  </x:si>
-  <x:si>
-    <x:t>NO</x:t>
-  </x:si>
-  <x:si>
     <x:t>외래키</x:t>
   </x:si>
   <x:si>
-    <x:t>닉네임</x:t>
-  </x:si>
-  <x:si>
     <x:t>작성자</x:t>
   </x:si>
   <x:si>
-    <x:t>board_name</x:t>
-  </x:si>
-  <x:si>
-    <x:t>tbl_comment</x:t>
-  </x:si>
-  <x:si>
-    <x:t>가변문자열(30)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>tbl_board</x:t>
-  </x:si>
-  <x:si>
-    <x:t>file_num</x:t>
-  </x:si>
-  <x:si>
-    <x:t>comment_num</x:t>
-  </x:si>
-  <x:si>
-    <x:t>VARCHAR(20)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>tbl_scrap</x:t>
-  </x:si>
-  <x:si>
-    <x:t>tbl_file</x:t>
-  </x:si>
-  <x:si>
-    <x:t>board_code</x:t>
-  </x:si>
-  <x:si>
-    <x:t>file_name</x:t>
-  </x:si>
-  <x:si>
-    <x:t>가변문자열(20)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>VARCHAR(30)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>scrap_date</x:t>
-  </x:si>
-  <x:si>
-    <x:t>content_num</x:t>
-  </x:si>
-  <x:si>
-    <x:t>tbl_content</x:t>
-  </x:si>
-  <x:si>
-    <x:t>scrap_num</x:t>
-  </x:si>
-  <x:si>
-    <x:t>FK 테이블 이름</x:t>
-  </x:si>
-  <x:si>
-    <x:t>가변문자열(10)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>VARCHAR(10)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>고정문자열(4)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>C0000001</x:t>
-  </x:si>
-  <x:si>
-    <x:t>TI-1,TI-2</x:t>
-  </x:si>
-  <x:si>
-    <x:t>NOT NULL</x:t>
-  </x:si>
-  <x:si>
-    <x:t>member_pw</x:t>
-  </x:si>
-  <x:si>
-    <x:t xml:space="preserve"> CHAR(4)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>PRIMARY KEY</x:t>
-  </x:si>
-  <x:si>
-    <x:t>가변문자열(125)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>가변문자열(500)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>member_num</x:t>
-  </x:si>
-  <x:si>
-    <x:t>member_id</x:t>
-  </x:si>
-  <x:si>
-    <x:t>CM0000001</x:t>
-  </x:si>
-  <x:si>
-    <x:t>가변문자열(2000)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>tbl_member</x:t>
-  </x:si>
-  <x:si>
-    <x:t>S0000001</x:t>
+    <x:t>content_text</x:t>
+  </x:si>
+  <x:si>
+    <x:t>content_good</x:t>
+  </x:si>
+  <x:si>
+    <x:t>comment_text</x:t>
+  </x:si>
+  <x:si>
+    <x:t>AUTO_INCREMENT</x:t>
+  </x:si>
+  <x:si>
+    <x:t>content_date</x:t>
+  </x:si>
+  <x:si>
+    <x:t>VARCHAR(500)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>centent_view</x:t>
+  </x:si>
+  <x:si>
+    <x:t>comment_time</x:t>
+  </x:si>
+  <x:si>
+    <x:t>member_nname</x:t>
+  </x:si>
+  <x:si>
+    <x:t>content_time</x:t>
+  </x:si>
+  <x:si>
+    <x:t>content_title</x:t>
+  </x:si>
+  <x:si>
+    <x:t>comment_writer</x:t>
+  </x:si>
+  <x:si>
+    <x:t>VARCHAR(125)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>VARCHAR(200)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>content_nname</x:t>
+  </x:si>
+  <x:si>
+    <x:t>member_email</x:t>
+  </x:si>
+  <x:si>
+    <x:t>VARCHAR(2000)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>member_level</x:t>
+  </x:si>
+  <x:si>
+    <x:t>비밀번호</x:t>
+  </x:si>
+  <x:si>
+    <x:t>테이블명</x:t>
+  </x:si>
+  <x:si>
+    <x:t>작성날짜</x:t>
+  </x:si>
+  <x:si>
+    <x:t>유저번호</x:t>
+  </x:si>
+  <x:si>
+    <x:t>게시물테이블</x:t>
+  </x:si>
+  <x:si>
+    <x:t>권한등급</x:t>
+  </x:si>
+  <x:si>
+    <x:t>게시판테이블</x:t>
+  </x:si>
+  <x:si>
+    <x:t>게시판코드</x:t>
+  </x:si>
+  <x:si>
+    <x:t>테이블 설명</x:t>
+  </x:si>
+  <x:si>
+    <x:t>FK 열이름</x:t>
+  </x:si>
+  <x:si>
+    <x:t>MySQL형식</x:t>
+  </x:si>
+  <x:si>
+    <x:t>테이블 명세서</x:t>
+  </x:si>
+  <x:si>
+    <x:t>page</x:t>
   </x:si>
   <x:si>
     <x:t>Column</x:t>
   </x:si>
   <x:si>
-    <x:t>테이블 명세서</x:t>
-  </x:si>
-  <x:si>
-    <x:t>작성날짜</x:t>
-  </x:si>
-  <x:si>
     <x:t>데이터 형식</x:t>
   </x:si>
   <x:si>
-    <x:t>유저번호</x:t>
-  </x:si>
-  <x:si>
-    <x:t>테이블 설명</x:t>
-  </x:si>
-  <x:si>
     <x:t>NULL ?</x:t>
   </x:si>
   <x:si>
@@ -209,139 +290,58 @@
     <x:t>작성자 닉네임</x:t>
   </x:si>
   <x:si>
-    <x:t>권한등급</x:t>
+    <x:t>게시판명</x:t>
   </x:si>
   <x:si>
     <x:t>댓글내용</x:t>
   </x:si>
   <x:si>
-    <x:t>게시물테이블</x:t>
-  </x:si>
-  <x:si>
-    <x:t>게시판코드</x:t>
-  </x:si>
-  <x:si>
-    <x:t>page</x:t>
-  </x:si>
-  <x:si>
-    <x:t>FK 열이름</x:t>
-  </x:si>
-  <x:si>
-    <x:t>비밀번호</x:t>
-  </x:si>
-  <x:si>
-    <x:t>게시판명</x:t>
-  </x:si>
-  <x:si>
-    <x:t>게시판테이블</x:t>
-  </x:si>
-  <x:si>
-    <x:t>MySQL형식</x:t>
-  </x:si>
-  <x:si>
-    <x:t>테이블명</x:t>
+    <x:t>첨부파일테이블</x:t>
+  </x:si>
+  <x:si>
+    <x:t>BIGINT</x:t>
   </x:si>
   <x:si>
     <x:t>system</x:t>
   </x:si>
   <x:si>
+    <x:t>열 이름</x:t>
+  </x:si>
+  <x:si>
+    <x:t>스크랩날짜</x:t>
+  </x:si>
+  <x:si>
+    <x:t>회원테이블</x:t>
+  </x:si>
+  <x:si>
+    <x:t>댓글번호</x:t>
+  </x:si>
+  <x:si>
     <x:t>CHAR(4)</x:t>
   </x:si>
   <x:si>
-    <x:t>댓글번호</x:t>
-  </x:si>
-  <x:si>
-    <x:t>첨부파일테이블</x:t>
+    <x:t>작성시각</x:t>
+  </x:si>
+  <x:si>
+    <x:t>스크랩테이블</x:t>
+  </x:si>
+  <x:si>
+    <x:t>파일번호</x:t>
+  </x:si>
+  <x:si>
+    <x:t>스크랩번호</x:t>
+  </x:si>
+  <x:si>
+    <x:t>UNIQUE</x:t>
+  </x:si>
+  <x:si>
+    <x:t>F000001</x:t>
   </x:si>
   <x:si>
     <x:t>댓글작성자</x:t>
   </x:si>
   <x:si>
-    <x:t>F000001</x:t>
-  </x:si>
-  <x:si>
-    <x:t>UNIQUE</x:t>
-  </x:si>
-  <x:si>
     <x:t>댓글테이블</x:t>
-  </x:si>
-  <x:si>
-    <x:t>스크랩날짜</x:t>
-  </x:si>
-  <x:si>
-    <x:t>작성시각</x:t>
-  </x:si>
-  <x:si>
-    <x:t>파일번호</x:t>
-  </x:si>
-  <x:si>
-    <x:t>BIGINT</x:t>
-  </x:si>
-  <x:si>
-    <x:t>스크랩번호</x:t>
-  </x:si>
-  <x:si>
-    <x:t>스크랩테이블</x:t>
-  </x:si>
-  <x:si>
-    <x:t>회원테이블</x:t>
-  </x:si>
-  <x:si>
-    <x:t>열 이름</x:t>
-  </x:si>
-  <x:si>
-    <x:t>comment_text</x:t>
-  </x:si>
-  <x:si>
-    <x:t>content_good</x:t>
-  </x:si>
-  <x:si>
-    <x:t>content_text</x:t>
-  </x:si>
-  <x:si>
-    <x:t>content_date</x:t>
-  </x:si>
-  <x:si>
-    <x:t>member_level</x:t>
-  </x:si>
-  <x:si>
-    <x:t>AUTO_INCREMENT</x:t>
-  </x:si>
-  <x:si>
-    <x:t>content_time</x:t>
-  </x:si>
-  <x:si>
-    <x:t>member_nname</x:t>
-  </x:si>
-  <x:si>
-    <x:t>content_nname</x:t>
-  </x:si>
-  <x:si>
-    <x:t>VARCHAR(125)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>content_title</x:t>
-  </x:si>
-  <x:si>
-    <x:t>VARCHAR(2000)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>comment_time</x:t>
-  </x:si>
-  <x:si>
-    <x:t>member_email</x:t>
-  </x:si>
-  <x:si>
-    <x:t>comment_writer</x:t>
-  </x:si>
-  <x:si>
-    <x:t>VARCHAR(200)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>VARCHAR(500)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>centent_view</x:t>
   </x:si>
 </x:sst>
 </file>
@@ -2443,37 +2443,37 @@
         <x:v>71</x:v>
       </x:c>
       <x:c r="C2" s="4" t="s">
-        <x:v>86</x:v>
+        <x:v>95</x:v>
       </x:c>
       <x:c r="D2" s="25" t="s">
-        <x:v>53</x:v>
+        <x:v>81</x:v>
       </x:c>
       <x:c r="E2" s="25"/>
       <x:c r="F2" s="25"/>
       <x:c r="G2" s="25"/>
       <x:c r="H2" s="27" t="s">
-        <x:v>10</x:v>
+        <x:v>48</x:v>
       </x:c>
       <x:c r="I2" s="27"/>
       <x:c r="J2" s="14"/>
       <x:c r="K2" s="27" t="s">
-        <x:v>65</x:v>
+        <x:v>82</x:v>
       </x:c>
       <x:c r="L2" s="28"/>
     </x:row>
     <x:row r="3" spans="2:12" customHeight="1">
       <x:c r="B3" s="15" t="s">
-        <x:v>72</x:v>
+        <x:v>92</x:v>
       </x:c>
       <x:c r="C3" s="8" t="s">
-        <x:v>50</x:v>
+        <x:v>27</x:v>
       </x:c>
       <x:c r="D3" s="26"/>
       <x:c r="E3" s="26"/>
       <x:c r="F3" s="26"/>
       <x:c r="G3" s="26"/>
       <x:c r="H3" s="29" t="s">
-        <x:v>16</x:v>
+        <x:v>51</x:v>
       </x:c>
       <x:c r="I3" s="29"/>
       <x:c r="J3" s="21"/>
@@ -2484,7 +2484,7 @@
     </x:row>
     <x:row r="4" spans="2:12" customHeight="1">
       <x:c r="B4" s="17" t="s">
-        <x:v>57</x:v>
+        <x:v>78</x:v>
       </x:c>
       <x:c r="C4" s="23"/>
       <x:c r="D4" s="23"/>
@@ -2499,37 +2499,37 @@
     </x:row>
     <x:row r="5" spans="2:12" customHeight="1">
       <x:c r="B5" s="18" t="s">
-        <x:v>13</x:v>
+        <x:v>44</x:v>
       </x:c>
       <x:c r="C5" s="19" t="s">
-        <x:v>87</x:v>
+        <x:v>93</x:v>
       </x:c>
       <x:c r="D5" s="19" t="s">
-        <x:v>55</x:v>
+        <x:v>84</x:v>
       </x:c>
       <x:c r="E5" s="19" t="s">
-        <x:v>52</x:v>
+        <x:v>83</x:v>
       </x:c>
       <x:c r="F5" s="19" t="s">
-        <x:v>70</x:v>
+        <x:v>80</x:v>
       </x:c>
       <x:c r="G5" s="19" t="s">
-        <x:v>58</x:v>
+        <x:v>85</x:v>
       </x:c>
       <x:c r="H5" s="19" t="s">
-        <x:v>8</x:v>
+        <x:v>40</x:v>
       </x:c>
       <x:c r="I5" s="19" t="s">
-        <x:v>14</x:v>
+        <x:v>50</x:v>
       </x:c>
       <x:c r="J5" s="19" t="s">
-        <x:v>34</x:v>
+        <x:v>11</x:v>
       </x:c>
       <x:c r="K5" s="19" t="s">
-        <x:v>66</x:v>
+        <x:v>79</x:v>
       </x:c>
       <x:c r="L5" s="20" t="s">
-        <x:v>3</x:v>
+        <x:v>42</x:v>
       </x:c>
     </x:row>
     <x:row r="6" spans="2:12" customHeight="1">
@@ -2537,22 +2537,22 @@
         <x:v>1</x:v>
       </x:c>
       <x:c r="C6" s="3" t="s">
-        <x:v>56</x:v>
+        <x:v>73</x:v>
       </x:c>
       <x:c r="D6" s="8" t="s">
-        <x:v>1</x:v>
+        <x:v>38</x:v>
       </x:c>
       <x:c r="E6" s="4" t="s">
-        <x:v>46</x:v>
+        <x:v>34</x:v>
       </x:c>
       <x:c r="F6" s="22" t="s">
-        <x:v>83</x:v>
+        <x:v>91</x:v>
       </x:c>
       <x:c r="G6" s="4" t="s">
-        <x:v>93</x:v>
+        <x:v>55</x:v>
       </x:c>
       <x:c r="H6" s="4" t="s">
-        <x:v>43</x:v>
+        <x:v>20</x:v>
       </x:c>
       <x:c r="I6" s="4"/>
       <x:c r="J6" s="4"/>
@@ -2564,19 +2564,19 @@
         <x:v>2</x:v>
       </x:c>
       <x:c r="C7" s="7" t="s">
-        <x:v>61</x:v>
+        <x:v>75</x:v>
       </x:c>
       <x:c r="D7" s="8" t="s">
-        <x:v>1</x:v>
+        <x:v>38</x:v>
       </x:c>
       <x:c r="E7" s="8" t="s">
-        <x:v>92</x:v>
+        <x:v>69</x:v>
       </x:c>
       <x:c r="F7" s="22" t="s">
-        <x:v>83</x:v>
+        <x:v>91</x:v>
       </x:c>
       <x:c r="G7" s="8" t="s">
-        <x:v>40</x:v>
+        <x:v>25</x:v>
       </x:c>
       <x:c r="H7" s="8"/>
       <x:c r="I7" s="8"/>
@@ -2589,22 +2589,22 @@
         <x:v>3</x:v>
       </x:c>
       <x:c r="C8" s="7" t="s">
+        <x:v>39</x:v>
+      </x:c>
+      <x:c r="D8" s="8" t="s">
+        <x:v>5</x:v>
+      </x:c>
+      <x:c r="E8" s="8" t="s">
+        <x:v>28</x:v>
+      </x:c>
+      <x:c r="F8" s="8" t="s">
         <x:v>6</x:v>
       </x:c>
-      <x:c r="D8" s="8" t="s">
-        <x:v>28</x:v>
-      </x:c>
-      <x:c r="E8" s="8" t="s">
-        <x:v>47</x:v>
-      </x:c>
-      <x:c r="F8" s="8" t="s">
-        <x:v>23</x:v>
-      </x:c>
       <x:c r="G8" s="8" t="s">
-        <x:v>40</x:v>
+        <x:v>25</x:v>
       </x:c>
       <x:c r="H8" s="8" t="s">
-        <x:v>78</x:v>
+        <x:v>102</x:v>
       </x:c>
       <x:c r="I8" s="8"/>
       <x:c r="J8" s="8"/>
@@ -2616,19 +2616,19 @@
         <x:v>4</x:v>
       </x:c>
       <x:c r="C9" s="7" t="s">
-        <x:v>67</x:v>
+        <x:v>70</x:v>
       </x:c>
       <x:c r="D9" s="8" t="s">
-        <x:v>19</x:v>
+        <x:v>3</x:v>
       </x:c>
       <x:c r="E9" s="8" t="s">
-        <x:v>41</x:v>
+        <x:v>24</x:v>
       </x:c>
       <x:c r="F9" s="8" t="s">
-        <x:v>29</x:v>
+        <x:v>15</x:v>
       </x:c>
       <x:c r="G9" s="8" t="s">
-        <x:v>40</x:v>
+        <x:v>25</x:v>
       </x:c>
       <x:c r="H9" s="8"/>
       <x:c r="I9" s="8"/>
@@ -2641,22 +2641,22 @@
         <x:v>5</x:v>
       </x:c>
       <x:c r="C10" s="7" t="s">
+        <x:v>46</x:v>
+      </x:c>
+      <x:c r="D10" s="8" t="s">
+        <x:v>3</x:v>
+      </x:c>
+      <x:c r="E10" s="8" t="s">
+        <x:v>60</x:v>
+      </x:c>
+      <x:c r="F10" s="8" t="s">
         <x:v>15</x:v>
       </x:c>
-      <x:c r="D10" s="8" t="s">
-        <x:v>19</x:v>
-      </x:c>
-      <x:c r="E10" s="8" t="s">
-        <x:v>95</x:v>
-      </x:c>
-      <x:c r="F10" s="8" t="s">
-        <x:v>29</x:v>
-      </x:c>
       <x:c r="G10" s="8" t="s">
-        <x:v>40</x:v>
+        <x:v>25</x:v>
       </x:c>
       <x:c r="H10" s="8" t="s">
-        <x:v>78</x:v>
+        <x:v>102</x:v>
       </x:c>
       <x:c r="I10" s="8"/>
       <x:c r="J10" s="8"/>
@@ -2668,22 +2668,22 @@
         <x:v>6</x:v>
       </x:c>
       <x:c r="C11" s="7" t="s">
-        <x:v>11</x:v>
+        <x:v>45</x:v>
       </x:c>
       <x:c r="D11" s="8" t="s">
-        <x:v>19</x:v>
+        <x:v>3</x:v>
       </x:c>
       <x:c r="E11" s="8" t="s">
-        <x:v>101</x:v>
+        <x:v>67</x:v>
       </x:c>
       <x:c r="F11" s="8" t="s">
-        <x:v>29</x:v>
+        <x:v>15</x:v>
       </x:c>
       <x:c r="G11" s="8" t="s">
-        <x:v>40</x:v>
+        <x:v>25</x:v>
       </x:c>
       <x:c r="H11" s="8" t="s">
-        <x:v>78</x:v>
+        <x:v>102</x:v>
       </x:c>
       <x:c r="I11" s="8"/>
       <x:c r="J11" s="8"/>
@@ -2859,8 +2859,8 @@
   <x:sheetPr codeName="Sheet2"/>
   <x:dimension ref="B2:L21"/>
   <x:sheetViews>
-    <x:sheetView showGridLines="0" topLeftCell="A1" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
-      <x:selection activeCell="J3" activeCellId="0" sqref="J3:J3"/>
+    <x:sheetView showGridLines="0" tabSelected="1" topLeftCell="A1" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
+      <x:selection activeCell="O10" activeCellId="0" sqref="O10:O10"/>
     </x:sheetView>
   </x:sheetViews>
   <x:sheetFormatPr defaultColWidth="8.75" defaultRowHeight="20.100000000000001" customHeight="1"/>
@@ -3514,39 +3514,39 @@
         <x:v>71</x:v>
       </x:c>
       <x:c r="C2" s="4" t="s">
-        <x:v>63</x:v>
+        <x:v>74</x:v>
       </x:c>
       <x:c r="D2" s="25" t="s">
-        <x:v>53</x:v>
+        <x:v>81</x:v>
       </x:c>
       <x:c r="E2" s="25"/>
       <x:c r="F2" s="25"/>
       <x:c r="G2" s="25"/>
       <x:c r="H2" s="27" t="s">
-        <x:v>10</x:v>
+        <x:v>48</x:v>
       </x:c>
       <x:c r="I2" s="27"/>
       <x:c r="J2" s="14">
         <x:v>44385</x:v>
       </x:c>
       <x:c r="K2" s="27" t="s">
-        <x:v>65</x:v>
+        <x:v>82</x:v>
       </x:c>
       <x:c r="L2" s="28"/>
     </x:row>
     <x:row r="3" spans="2:12" customHeight="1">
       <x:c r="B3" s="15" t="s">
-        <x:v>72</x:v>
+        <x:v>92</x:v>
       </x:c>
       <x:c r="C3" s="8" t="s">
-        <x:v>32</x:v>
+        <x:v>7</x:v>
       </x:c>
       <x:c r="D3" s="26"/>
       <x:c r="E3" s="26"/>
       <x:c r="F3" s="26"/>
       <x:c r="G3" s="26"/>
       <x:c r="H3" s="29" t="s">
-        <x:v>16</x:v>
+        <x:v>51</x:v>
       </x:c>
       <x:c r="I3" s="29"/>
       <x:c r="J3" s="21"/>
@@ -3557,7 +3557,7 @@
     </x:row>
     <x:row r="4" spans="2:12" customHeight="1">
       <x:c r="B4" s="17" t="s">
-        <x:v>57</x:v>
+        <x:v>78</x:v>
       </x:c>
       <x:c r="C4" s="23"/>
       <x:c r="D4" s="23"/>
@@ -3572,37 +3572,37 @@
     </x:row>
     <x:row r="5" spans="2:12" customHeight="1">
       <x:c r="B5" s="18" t="s">
-        <x:v>13</x:v>
+        <x:v>44</x:v>
       </x:c>
       <x:c r="C5" s="19" t="s">
-        <x:v>87</x:v>
+        <x:v>93</x:v>
       </x:c>
       <x:c r="D5" s="19" t="s">
-        <x:v>55</x:v>
+        <x:v>84</x:v>
       </x:c>
       <x:c r="E5" s="19" t="s">
-        <x:v>52</x:v>
+        <x:v>83</x:v>
       </x:c>
       <x:c r="F5" s="19" t="s">
-        <x:v>70</x:v>
+        <x:v>80</x:v>
       </x:c>
       <x:c r="G5" s="19" t="s">
-        <x:v>58</x:v>
+        <x:v>85</x:v>
       </x:c>
       <x:c r="H5" s="19" t="s">
-        <x:v>8</x:v>
+        <x:v>40</x:v>
       </x:c>
       <x:c r="I5" s="19" t="s">
-        <x:v>14</x:v>
+        <x:v>50</x:v>
       </x:c>
       <x:c r="J5" s="19" t="s">
-        <x:v>34</x:v>
+        <x:v>11</x:v>
       </x:c>
       <x:c r="K5" s="19" t="s">
-        <x:v>66</x:v>
+        <x:v>79</x:v>
       </x:c>
       <x:c r="L5" s="20" t="s">
-        <x:v>3</x:v>
+        <x:v>42</x:v>
       </x:c>
     </x:row>
     <x:row r="6" spans="2:12" customHeight="1">
@@ -3610,28 +3610,28 @@
         <x:v>1</x:v>
       </x:c>
       <x:c r="C6" s="3" t="s">
-        <x:v>0</x:v>
+        <x:v>37</x:v>
       </x:c>
       <x:c r="D6" s="22" t="s">
-        <x:v>1</x:v>
+        <x:v>38</x:v>
       </x:c>
       <x:c r="E6" s="4" t="s">
-        <x:v>31</x:v>
+        <x:v>4</x:v>
       </x:c>
       <x:c r="F6" s="22" t="s">
-        <x:v>83</x:v>
+        <x:v>91</x:v>
       </x:c>
       <x:c r="G6" s="4" t="s">
-        <x:v>93</x:v>
+        <x:v>55</x:v>
       </x:c>
       <x:c r="H6" s="4" t="s">
-        <x:v>43</x:v>
+        <x:v>20</x:v>
       </x:c>
       <x:c r="I6" s="4"/>
       <x:c r="J6" s="4"/>
       <x:c r="K6" s="4"/>
       <x:c r="L6" s="5" t="s">
-        <x:v>38</x:v>
+        <x:v>22</x:v>
       </x:c>
     </x:row>
     <x:row r="7" spans="2:12" customHeight="1">
@@ -3639,19 +3639,19 @@
         <x:v>2</x:v>
       </x:c>
       <x:c r="C7" s="7" t="s">
-        <x:v>56</x:v>
+        <x:v>73</x:v>
       </x:c>
       <x:c r="D7" s="22" t="s">
-        <x:v>1</x:v>
+        <x:v>38</x:v>
       </x:c>
       <x:c r="E7" s="8" t="s">
-        <x:v>46</x:v>
+        <x:v>34</x:v>
       </x:c>
       <x:c r="F7" s="22" t="s">
-        <x:v>83</x:v>
+        <x:v>91</x:v>
       </x:c>
       <x:c r="G7" s="8" t="s">
-        <x:v>40</x:v>
+        <x:v>25</x:v>
       </x:c>
       <x:c r="H7" s="8"/>
       <x:c r="I7" s="8"/>
@@ -3664,19 +3664,19 @@
         <x:v>3</x:v>
       </x:c>
       <x:c r="C8" s="7" t="s">
-        <x:v>60</x:v>
+        <x:v>87</x:v>
       </x:c>
       <x:c r="D8" s="8" t="s">
-        <x:v>19</x:v>
+        <x:v>3</x:v>
       </x:c>
       <x:c r="E8" s="8" t="s">
-        <x:v>96</x:v>
+        <x:v>66</x:v>
       </x:c>
       <x:c r="F8" s="8" t="s">
-        <x:v>29</x:v>
+        <x:v>15</x:v>
       </x:c>
       <x:c r="G8" s="8" t="s">
-        <x:v>40</x:v>
+        <x:v>25</x:v>
       </x:c>
       <x:c r="H8" s="8"/>
       <x:c r="I8" s="8"/>
@@ -3689,19 +3689,19 @@
         <x:v>4</x:v>
       </x:c>
       <x:c r="C9" s="7" t="s">
-        <x:v>64</x:v>
+        <x:v>77</x:v>
       </x:c>
       <x:c r="D9" s="22" t="s">
-        <x:v>37</x:v>
+        <x:v>26</x:v>
       </x:c>
       <x:c r="E9" s="8" t="s">
-        <x:v>26</x:v>
+        <x:v>9</x:v>
       </x:c>
       <x:c r="F9" s="8" t="s">
-        <x:v>73</x:v>
+        <x:v>97</x:v>
       </x:c>
       <x:c r="G9" s="8" t="s">
-        <x:v>40</x:v>
+        <x:v>25</x:v>
       </x:c>
       <x:c r="H9" s="8"/>
       <x:c r="I9" s="8"/>
@@ -3714,19 +3714,19 @@
         <x:v>5</x:v>
       </x:c>
       <x:c r="C10" s="7" t="s">
-        <x:v>54</x:v>
+        <x:v>72</x:v>
       </x:c>
       <x:c r="D10" s="22" t="s">
-        <x:v>35</x:v>
+        <x:v>23</x:v>
       </x:c>
       <x:c r="E10" s="8" t="s">
-        <x:v>91</x:v>
+        <x:v>56</x:v>
       </x:c>
       <x:c r="F10" s="8" t="s">
-        <x:v>36</x:v>
+        <x:v>21</x:v>
       </x:c>
       <x:c r="G10" s="8" t="s">
-        <x:v>40</x:v>
+        <x:v>25</x:v>
       </x:c>
       <x:c r="H10" s="8"/>
       <x:c r="I10" s="8"/>
@@ -3739,19 +3739,19 @@
         <x:v>6</x:v>
       </x:c>
       <x:c r="C11" s="7" t="s">
-        <x:v>81</x:v>
+        <x:v>98</x:v>
       </x:c>
       <x:c r="D11" s="22" t="s">
-        <x:v>35</x:v>
+        <x:v>23</x:v>
       </x:c>
       <x:c r="E11" s="8" t="s">
-        <x:v>94</x:v>
+        <x:v>61</x:v>
       </x:c>
       <x:c r="F11" s="8" t="s">
-        <x:v>36</x:v>
+        <x:v>21</x:v>
       </x:c>
       <x:c r="G11" s="8" t="s">
-        <x:v>40</x:v>
+        <x:v>25</x:v>
       </x:c>
       <x:c r="H11" s="8"/>
       <x:c r="I11" s="8"/>
@@ -3764,19 +3764,19 @@
         <x:v>7</x:v>
       </x:c>
       <x:c r="C12" s="7" t="s">
-        <x:v>9</x:v>
+        <x:v>43</x:v>
       </x:c>
       <x:c r="D12" s="22" t="s">
-        <x:v>1</x:v>
+        <x:v>38</x:v>
       </x:c>
       <x:c r="E12" s="8" t="s">
-        <x:v>105</x:v>
+        <x:v>58</x:v>
       </x:c>
       <x:c r="F12" s="8" t="s">
-        <x:v>2</x:v>
+        <x:v>36</x:v>
       </x:c>
       <x:c r="G12" s="8" t="s">
-        <x:v>40</x:v>
+        <x:v>25</x:v>
       </x:c>
       <x:c r="H12" s="8"/>
       <x:c r="I12" s="8"/>
@@ -3789,19 +3789,19 @@
         <x:v>8</x:v>
       </x:c>
       <x:c r="C13" s="8" t="s">
-        <x:v>5</x:v>
+        <x:v>41</x:v>
       </x:c>
       <x:c r="D13" s="22" t="s">
-        <x:v>1</x:v>
+        <x:v>38</x:v>
       </x:c>
       <x:c r="E13" s="8" t="s">
-        <x:v>89</x:v>
+        <x:v>53</x:v>
       </x:c>
       <x:c r="F13" s="8" t="s">
-        <x:v>2</x:v>
+        <x:v>36</x:v>
       </x:c>
       <x:c r="G13" s="8" t="s">
-        <x:v>40</x:v>
+        <x:v>25</x:v>
       </x:c>
       <x:c r="H13" s="8"/>
       <x:c r="I13" s="8"/>
@@ -3814,19 +3814,19 @@
         <x:v>9</x:v>
       </x:c>
       <x:c r="C14" s="8" t="s">
-        <x:v>4</x:v>
+        <x:v>47</x:v>
       </x:c>
       <x:c r="D14" s="8" t="s">
-        <x:v>44</x:v>
+        <x:v>33</x:v>
       </x:c>
       <x:c r="E14" s="8" t="s">
-        <x:v>98</x:v>
+        <x:v>62</x:v>
       </x:c>
       <x:c r="F14" s="8" t="s">
-        <x:v>97</x:v>
+        <x:v>64</x:v>
       </x:c>
       <x:c r="G14" s="8" t="s">
-        <x:v>40</x:v>
+        <x:v>25</x:v>
       </x:c>
       <x:c r="H14" s="8"/>
       <x:c r="I14" s="8"/>
@@ -3839,19 +3839,19 @@
         <x:v>10</x:v>
       </x:c>
       <x:c r="C15" s="8" t="s">
-        <x:v>12</x:v>
+        <x:v>35</x:v>
       </x:c>
       <x:c r="D15" s="8" t="s">
-        <x:v>49</x:v>
+        <x:v>30</x:v>
       </x:c>
       <x:c r="E15" s="8" t="s">
-        <x:v>90</x:v>
+        <x:v>52</x:v>
       </x:c>
       <x:c r="F15" s="8" t="s">
-        <x:v>99</x:v>
+        <x:v>68</x:v>
       </x:c>
       <x:c r="G15" s="8" t="s">
-        <x:v>40</x:v>
+        <x:v>25</x:v>
       </x:c>
       <x:c r="H15" s="8"/>
       <x:c r="I15" s="8"/>
@@ -4623,37 +4623,37 @@
         <x:v>71</x:v>
       </x:c>
       <x:c r="C2" s="4" t="s">
-        <x:v>69</x:v>
+        <x:v>76</x:v>
       </x:c>
       <x:c r="D2" s="25" t="s">
-        <x:v>53</x:v>
+        <x:v>81</x:v>
       </x:c>
       <x:c r="E2" s="25"/>
       <x:c r="F2" s="25"/>
       <x:c r="G2" s="25"/>
       <x:c r="H2" s="27" t="s">
-        <x:v>10</x:v>
+        <x:v>48</x:v>
       </x:c>
       <x:c r="I2" s="27"/>
       <x:c r="J2" s="14"/>
       <x:c r="K2" s="27" t="s">
-        <x:v>65</x:v>
+        <x:v>82</x:v>
       </x:c>
       <x:c r="L2" s="28"/>
     </x:row>
     <x:row r="3" spans="2:12" customHeight="1">
       <x:c r="B3" s="15" t="s">
-        <x:v>72</x:v>
+        <x:v>92</x:v>
       </x:c>
       <x:c r="C3" s="8" t="s">
-        <x:v>20</x:v>
+        <x:v>17</x:v>
       </x:c>
       <x:c r="D3" s="26"/>
       <x:c r="E3" s="26"/>
       <x:c r="F3" s="26"/>
       <x:c r="G3" s="26"/>
       <x:c r="H3" s="29" t="s">
-        <x:v>16</x:v>
+        <x:v>51</x:v>
       </x:c>
       <x:c r="I3" s="29"/>
       <x:c r="J3" s="21"/>
@@ -4664,7 +4664,7 @@
     </x:row>
     <x:row r="4" spans="2:12" customHeight="1">
       <x:c r="B4" s="17" t="s">
-        <x:v>57</x:v>
+        <x:v>78</x:v>
       </x:c>
       <x:c r="C4" s="23"/>
       <x:c r="D4" s="23"/>
@@ -4679,37 +4679,37 @@
     </x:row>
     <x:row r="5" spans="2:12" customHeight="1">
       <x:c r="B5" s="18" t="s">
-        <x:v>13</x:v>
+        <x:v>44</x:v>
       </x:c>
       <x:c r="C5" s="19" t="s">
-        <x:v>87</x:v>
+        <x:v>93</x:v>
       </x:c>
       <x:c r="D5" s="19" t="s">
-        <x:v>55</x:v>
+        <x:v>84</x:v>
       </x:c>
       <x:c r="E5" s="19" t="s">
-        <x:v>52</x:v>
+        <x:v>83</x:v>
       </x:c>
       <x:c r="F5" s="19" t="s">
-        <x:v>70</x:v>
+        <x:v>80</x:v>
       </x:c>
       <x:c r="G5" s="19" t="s">
-        <x:v>58</x:v>
+        <x:v>85</x:v>
       </x:c>
       <x:c r="H5" s="19" t="s">
-        <x:v>8</x:v>
+        <x:v>40</x:v>
       </x:c>
       <x:c r="I5" s="19" t="s">
-        <x:v>14</x:v>
+        <x:v>50</x:v>
       </x:c>
       <x:c r="J5" s="19" t="s">
-        <x:v>34</x:v>
+        <x:v>11</x:v>
       </x:c>
       <x:c r="K5" s="19" t="s">
-        <x:v>66</x:v>
+        <x:v>79</x:v>
       </x:c>
       <x:c r="L5" s="20" t="s">
-        <x:v>3</x:v>
+        <x:v>42</x:v>
       </x:c>
     </x:row>
     <x:row r="6" spans="2:12" customHeight="1">
@@ -4717,26 +4717,26 @@
         <x:v>1</x:v>
       </x:c>
       <x:c r="C6" s="3" t="s">
-        <x:v>64</x:v>
+        <x:v>77</x:v>
       </x:c>
       <x:c r="D6" s="22" t="s">
-        <x:v>37</x:v>
+        <x:v>26</x:v>
       </x:c>
       <x:c r="E6" s="4" t="s">
-        <x:v>26</x:v>
+        <x:v>9</x:v>
       </x:c>
       <x:c r="F6" s="4" t="s">
-        <x:v>73</x:v>
+        <x:v>97</x:v>
       </x:c>
       <x:c r="G6" s="8"/>
       <x:c r="H6" s="4" t="s">
-        <x:v>43</x:v>
+        <x:v>20</x:v>
       </x:c>
       <x:c r="I6" s="4"/>
       <x:c r="J6" s="4"/>
       <x:c r="K6" s="4"/>
       <x:c r="L6" s="9" t="s">
-        <x:v>39</x:v>
+        <x:v>19</x:v>
       </x:c>
     </x:row>
     <x:row r="7" spans="2:12" customHeight="1">
@@ -4744,19 +4744,19 @@
         <x:v>2</x:v>
       </x:c>
       <x:c r="C7" s="7" t="s">
-        <x:v>68</x:v>
+        <x:v>88</x:v>
       </x:c>
       <x:c r="D7" s="8" t="s">
-        <x:v>28</x:v>
+        <x:v>5</x:v>
       </x:c>
       <x:c r="E7" s="8" t="s">
-        <x:v>17</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="F7" s="8" t="s">
-        <x:v>23</x:v>
+        <x:v>6</x:v>
       </x:c>
       <x:c r="G7" s="8" t="s">
-        <x:v>40</x:v>
+        <x:v>25</x:v>
       </x:c>
       <x:c r="H7" s="8"/>
       <x:c r="I7" s="8"/>
@@ -5648,37 +5648,37 @@
         <x:v>71</x:v>
       </x:c>
       <x:c r="C2" s="4" t="s">
-        <x:v>79</x:v>
+        <x:v>105</x:v>
       </x:c>
       <x:c r="D2" s="25" t="s">
-        <x:v>53</x:v>
+        <x:v>81</x:v>
       </x:c>
       <x:c r="E2" s="25"/>
       <x:c r="F2" s="25"/>
       <x:c r="G2" s="25"/>
       <x:c r="H2" s="27" t="s">
-        <x:v>10</x:v>
+        <x:v>48</x:v>
       </x:c>
       <x:c r="I2" s="27"/>
       <x:c r="J2" s="14"/>
       <x:c r="K2" s="27" t="s">
-        <x:v>65</x:v>
+        <x:v>82</x:v>
       </x:c>
       <x:c r="L2" s="28"/>
     </x:row>
     <x:row r="3" spans="2:12" customHeight="1">
       <x:c r="B3" s="15" t="s">
-        <x:v>72</x:v>
+        <x:v>92</x:v>
       </x:c>
       <x:c r="C3" s="8" t="s">
-        <x:v>18</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="D3" s="26"/>
       <x:c r="E3" s="26"/>
       <x:c r="F3" s="26"/>
       <x:c r="G3" s="26"/>
       <x:c r="H3" s="29" t="s">
-        <x:v>16</x:v>
+        <x:v>51</x:v>
       </x:c>
       <x:c r="I3" s="29"/>
       <x:c r="J3" s="21"/>
@@ -5689,7 +5689,7 @@
     </x:row>
     <x:row r="4" spans="2:12" customHeight="1">
       <x:c r="B4" s="17" t="s">
-        <x:v>57</x:v>
+        <x:v>78</x:v>
       </x:c>
       <x:c r="C4" s="23"/>
       <x:c r="D4" s="23"/>
@@ -5704,37 +5704,37 @@
     </x:row>
     <x:row r="5" spans="2:12" customHeight="1">
       <x:c r="B5" s="18" t="s">
-        <x:v>13</x:v>
+        <x:v>44</x:v>
       </x:c>
       <x:c r="C5" s="19" t="s">
-        <x:v>87</x:v>
+        <x:v>93</x:v>
       </x:c>
       <x:c r="D5" s="19" t="s">
-        <x:v>55</x:v>
+        <x:v>84</x:v>
       </x:c>
       <x:c r="E5" s="19" t="s">
-        <x:v>52</x:v>
+        <x:v>83</x:v>
       </x:c>
       <x:c r="F5" s="19" t="s">
-        <x:v>70</x:v>
+        <x:v>80</x:v>
       </x:c>
       <x:c r="G5" s="19" t="s">
-        <x:v>58</x:v>
+        <x:v>85</x:v>
       </x:c>
       <x:c r="H5" s="19" t="s">
-        <x:v>8</x:v>
+        <x:v>40</x:v>
       </x:c>
       <x:c r="I5" s="19" t="s">
-        <x:v>14</x:v>
+        <x:v>50</x:v>
       </x:c>
       <x:c r="J5" s="19" t="s">
-        <x:v>34</x:v>
+        <x:v>11</x:v>
       </x:c>
       <x:c r="K5" s="19" t="s">
-        <x:v>66</x:v>
+        <x:v>79</x:v>
       </x:c>
       <x:c r="L5" s="20" t="s">
-        <x:v>3</x:v>
+        <x:v>42</x:v>
       </x:c>
     </x:row>
     <x:row r="6" spans="2:12" customHeight="1">
@@ -5742,28 +5742,28 @@
         <x:v>1</x:v>
       </x:c>
       <x:c r="C6" s="3" t="s">
-        <x:v>74</x:v>
+        <x:v>96</x:v>
       </x:c>
       <x:c r="D6" s="22" t="s">
-        <x:v>1</x:v>
+        <x:v>38</x:v>
       </x:c>
       <x:c r="E6" s="4" t="s">
-        <x:v>22</x:v>
+        <x:v>8</x:v>
       </x:c>
       <x:c r="F6" s="22" t="s">
-        <x:v>83</x:v>
+        <x:v>91</x:v>
       </x:c>
       <x:c r="G6" s="4" t="s">
-        <x:v>93</x:v>
+        <x:v>55</x:v>
       </x:c>
       <x:c r="H6" s="4" t="s">
-        <x:v>43</x:v>
+        <x:v>20</x:v>
       </x:c>
       <x:c r="I6" s="4"/>
       <x:c r="J6" s="4"/>
       <x:c r="K6" s="4"/>
       <x:c r="L6" s="5" t="s">
-        <x:v>48</x:v>
+        <x:v>29</x:v>
       </x:c>
     </x:row>
     <x:row r="7" spans="2:12" customHeight="1">
@@ -5771,19 +5771,19 @@
         <x:v>2</x:v>
       </x:c>
       <x:c r="C7" s="7" t="s">
-        <x:v>0</x:v>
+        <x:v>37</x:v>
       </x:c>
       <x:c r="D7" s="22" t="s">
-        <x:v>1</x:v>
+        <x:v>38</x:v>
       </x:c>
       <x:c r="E7" s="8" t="s">
-        <x:v>31</x:v>
+        <x:v>4</x:v>
       </x:c>
       <x:c r="F7" s="22" t="s">
-        <x:v>83</x:v>
+        <x:v>91</x:v>
       </x:c>
       <x:c r="G7" s="8" t="s">
-        <x:v>40</x:v>
+        <x:v>25</x:v>
       </x:c>
       <x:c r="H7" s="8"/>
       <x:c r="I7" s="8"/>
@@ -5796,19 +5796,19 @@
         <x:v>3</x:v>
       </x:c>
       <x:c r="C8" s="7" t="s">
-        <x:v>56</x:v>
+        <x:v>73</x:v>
       </x:c>
       <x:c r="D8" s="22" t="s">
-        <x:v>1</x:v>
+        <x:v>38</x:v>
       </x:c>
       <x:c r="E8" s="8" t="s">
-        <x:v>46</x:v>
+        <x:v>34</x:v>
       </x:c>
       <x:c r="F8" s="22" t="s">
-        <x:v>83</x:v>
+        <x:v>91</x:v>
       </x:c>
       <x:c r="G8" s="8" t="s">
-        <x:v>40</x:v>
+        <x:v>25</x:v>
       </x:c>
       <x:c r="H8" s="8"/>
       <x:c r="I8" s="8"/>
@@ -5821,19 +5821,19 @@
         <x:v>4</x:v>
       </x:c>
       <x:c r="C9" s="7" t="s">
-        <x:v>64</x:v>
+        <x:v>77</x:v>
       </x:c>
       <x:c r="D9" s="22" t="s">
-        <x:v>37</x:v>
+        <x:v>26</x:v>
       </x:c>
       <x:c r="E9" s="8" t="s">
-        <x:v>26</x:v>
+        <x:v>9</x:v>
       </x:c>
       <x:c r="F9" s="4" t="s">
-        <x:v>73</x:v>
+        <x:v>97</x:v>
       </x:c>
       <x:c r="G9" s="8" t="s">
-        <x:v>40</x:v>
+        <x:v>25</x:v>
       </x:c>
       <x:c r="H9" s="8"/>
       <x:c r="I9" s="8"/>
@@ -5846,19 +5846,19 @@
         <x:v>5</x:v>
       </x:c>
       <x:c r="C10" s="7" t="s">
-        <x:v>76</x:v>
+        <x:v>104</x:v>
       </x:c>
       <x:c r="D10" s="8" t="s">
-        <x:v>35</x:v>
+        <x:v>23</x:v>
       </x:c>
       <x:c r="E10" s="8" t="s">
-        <x:v>102</x:v>
+        <x:v>63</x:v>
       </x:c>
       <x:c r="F10" s="8" t="s">
-        <x:v>36</x:v>
+        <x:v>21</x:v>
       </x:c>
       <x:c r="G10" s="8" t="s">
-        <x:v>40</x:v>
+        <x:v>25</x:v>
       </x:c>
       <x:c r="H10" s="8"/>
       <x:c r="I10" s="8"/>
@@ -5871,19 +5871,19 @@
         <x:v>6</x:v>
       </x:c>
       <x:c r="C11" s="7" t="s">
-        <x:v>62</x:v>
+        <x:v>89</x:v>
       </x:c>
       <x:c r="D11" s="8" t="s">
-        <x:v>45</x:v>
+        <x:v>32</x:v>
       </x:c>
       <x:c r="E11" s="8" t="s">
-        <x:v>88</x:v>
+        <x:v>54</x:v>
       </x:c>
       <x:c r="F11" s="8" t="s">
-        <x:v>104</x:v>
+        <x:v>57</x:v>
       </x:c>
       <x:c r="G11" s="8" t="s">
-        <x:v>40</x:v>
+        <x:v>25</x:v>
       </x:c>
       <x:c r="H11" s="8"/>
       <x:c r="I11" s="8"/>
@@ -5896,19 +5896,19 @@
         <x:v>7</x:v>
       </x:c>
       <x:c r="C12" s="7" t="s">
+        <x:v>86</x:v>
+      </x:c>
+      <x:c r="D12" s="4" t="s">
+        <x:v>5</x:v>
+      </x:c>
+      <x:c r="E12" s="8" t="s">
         <x:v>59</x:v>
       </x:c>
-      <x:c r="D12" s="4" t="s">
-        <x:v>28</x:v>
-      </x:c>
-      <x:c r="E12" s="8" t="s">
-        <x:v>100</x:v>
-      </x:c>
       <x:c r="F12" s="8" t="s">
-        <x:v>23</x:v>
+        <x:v>6</x:v>
       </x:c>
       <x:c r="G12" s="8" t="s">
-        <x:v>40</x:v>
+        <x:v>25</x:v>
       </x:c>
       <x:c r="H12" s="8"/>
       <x:c r="I12" s="8"/>
@@ -6725,37 +6725,37 @@
         <x:v>71</x:v>
       </x:c>
       <x:c r="C2" s="4" t="s">
-        <x:v>75</x:v>
+        <x:v>90</x:v>
       </x:c>
       <x:c r="D2" s="25" t="s">
-        <x:v>53</x:v>
+        <x:v>81</x:v>
       </x:c>
       <x:c r="E2" s="25"/>
       <x:c r="F2" s="25"/>
       <x:c r="G2" s="25"/>
       <x:c r="H2" s="27" t="s">
-        <x:v>10</x:v>
+        <x:v>48</x:v>
       </x:c>
       <x:c r="I2" s="27"/>
       <x:c r="J2" s="14"/>
       <x:c r="K2" s="27" t="s">
-        <x:v>65</x:v>
+        <x:v>82</x:v>
       </x:c>
       <x:c r="L2" s="28"/>
     </x:row>
     <x:row r="3" spans="2:12" customHeight="1">
       <x:c r="B3" s="15" t="s">
-        <x:v>72</x:v>
+        <x:v>92</x:v>
       </x:c>
       <x:c r="C3" s="8" t="s">
-        <x:v>25</x:v>
+        <x:v>12</x:v>
       </x:c>
       <x:c r="D3" s="26"/>
       <x:c r="E3" s="26"/>
       <x:c r="F3" s="26"/>
       <x:c r="G3" s="26"/>
       <x:c r="H3" s="29" t="s">
-        <x:v>16</x:v>
+        <x:v>51</x:v>
       </x:c>
       <x:c r="I3" s="29"/>
       <x:c r="J3" s="21"/>
@@ -6766,7 +6766,7 @@
     </x:row>
     <x:row r="4" spans="2:12" customHeight="1">
       <x:c r="B4" s="17" t="s">
-        <x:v>57</x:v>
+        <x:v>78</x:v>
       </x:c>
       <x:c r="C4" s="23"/>
       <x:c r="D4" s="23"/>
@@ -6781,37 +6781,37 @@
     </x:row>
     <x:row r="5" spans="2:12" customHeight="1">
       <x:c r="B5" s="18" t="s">
-        <x:v>13</x:v>
+        <x:v>44</x:v>
       </x:c>
       <x:c r="C5" s="19" t="s">
-        <x:v>87</x:v>
+        <x:v>93</x:v>
       </x:c>
       <x:c r="D5" s="19" t="s">
-        <x:v>55</x:v>
+        <x:v>84</x:v>
       </x:c>
       <x:c r="E5" s="19" t="s">
-        <x:v>52</x:v>
+        <x:v>83</x:v>
       </x:c>
       <x:c r="F5" s="19" t="s">
-        <x:v>70</x:v>
+        <x:v>80</x:v>
       </x:c>
       <x:c r="G5" s="19" t="s">
-        <x:v>58</x:v>
+        <x:v>85</x:v>
       </x:c>
       <x:c r="H5" s="19" t="s">
-        <x:v>8</x:v>
+        <x:v>40</x:v>
       </x:c>
       <x:c r="I5" s="19" t="s">
-        <x:v>14</x:v>
+        <x:v>50</x:v>
       </x:c>
       <x:c r="J5" s="19" t="s">
-        <x:v>34</x:v>
+        <x:v>11</x:v>
       </x:c>
       <x:c r="K5" s="19" t="s">
-        <x:v>66</x:v>
+        <x:v>79</x:v>
       </x:c>
       <x:c r="L5" s="20" t="s">
-        <x:v>3</x:v>
+        <x:v>42</x:v>
       </x:c>
     </x:row>
     <x:row r="6" spans="2:12" customHeight="1">
@@ -6819,26 +6819,26 @@
         <x:v>1</x:v>
       </x:c>
       <x:c r="C6" s="3" t="s">
-        <x:v>82</x:v>
+        <x:v>100</x:v>
       </x:c>
       <x:c r="D6" s="22" t="s">
-        <x:v>1</x:v>
+        <x:v>38</x:v>
       </x:c>
       <x:c r="E6" s="4" t="s">
-        <x:v>21</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="F6" s="22" t="s">
-        <x:v>83</x:v>
+        <x:v>91</x:v>
       </x:c>
       <x:c r="G6" s="4"/>
       <x:c r="H6" s="4" t="s">
-        <x:v>43</x:v>
+        <x:v>20</x:v>
       </x:c>
       <x:c r="I6" s="4"/>
       <x:c r="J6" s="4"/>
       <x:c r="K6" s="4"/>
       <x:c r="L6" s="5" t="s">
-        <x:v>77</x:v>
+        <x:v>103</x:v>
       </x:c>
     </x:row>
     <x:row r="7" spans="2:12" customHeight="1">
@@ -6846,19 +6846,19 @@
         <x:v>2</x:v>
       </x:c>
       <x:c r="C7" s="7" t="s">
-        <x:v>0</x:v>
+        <x:v>37</x:v>
       </x:c>
       <x:c r="D7" s="22" t="s">
-        <x:v>1</x:v>
+        <x:v>38</x:v>
       </x:c>
       <x:c r="E7" s="8" t="s">
-        <x:v>31</x:v>
+        <x:v>4</x:v>
       </x:c>
       <x:c r="F7" s="22" t="s">
-        <x:v>83</x:v>
+        <x:v>91</x:v>
       </x:c>
       <x:c r="G7" s="8" t="s">
-        <x:v>40</x:v>
+        <x:v>25</x:v>
       </x:c>
       <x:c r="H7" s="8"/>
       <x:c r="I7" s="8"/>
@@ -6871,19 +6871,19 @@
         <x:v>3</x:v>
       </x:c>
       <x:c r="C8" s="7" t="s">
-        <x:v>56</x:v>
+        <x:v>73</x:v>
       </x:c>
       <x:c r="D8" s="22" t="s">
-        <x:v>1</x:v>
+        <x:v>38</x:v>
       </x:c>
       <x:c r="E8" s="8" t="s">
-        <x:v>46</x:v>
+        <x:v>34</x:v>
       </x:c>
       <x:c r="F8" s="22" t="s">
-        <x:v>83</x:v>
+        <x:v>91</x:v>
       </x:c>
       <x:c r="G8" s="8" t="s">
-        <x:v>40</x:v>
+        <x:v>25</x:v>
       </x:c>
       <x:c r="H8" s="8"/>
       <x:c r="I8" s="8"/>
@@ -6896,19 +6896,19 @@
         <x:v>4</x:v>
       </x:c>
       <x:c r="C9" s="7" t="s">
-        <x:v>64</x:v>
+        <x:v>77</x:v>
       </x:c>
       <x:c r="D9" s="22" t="s">
-        <x:v>37</x:v>
+        <x:v>26</x:v>
       </x:c>
       <x:c r="E9" s="8" t="s">
-        <x:v>26</x:v>
+        <x:v>9</x:v>
       </x:c>
       <x:c r="F9" s="4" t="s">
-        <x:v>42</x:v>
+        <x:v>18</x:v>
       </x:c>
       <x:c r="G9" s="8" t="s">
-        <x:v>40</x:v>
+        <x:v>25</x:v>
       </x:c>
       <x:c r="H9" s="8"/>
       <x:c r="I9" s="8"/>
@@ -6921,19 +6921,19 @@
         <x:v>5</x:v>
       </x:c>
       <x:c r="C10" s="7" t="s">
-        <x:v>7</x:v>
+        <x:v>49</x:v>
       </x:c>
       <x:c r="D10" s="8" t="s">
-        <x:v>44</x:v>
+        <x:v>33</x:v>
       </x:c>
       <x:c r="E10" s="8" t="s">
-        <x:v>27</x:v>
+        <x:v>16</x:v>
       </x:c>
       <x:c r="F10" s="4" t="s">
-        <x:v>103</x:v>
+        <x:v>65</x:v>
       </x:c>
       <x:c r="G10" s="8" t="s">
-        <x:v>40</x:v>
+        <x:v>25</x:v>
       </x:c>
       <x:c r="H10" s="8"/>
       <x:c r="I10" s="8"/>
@@ -7125,8 +7125,8 @@
   <x:sheetPr codeName="Sheet6"/>
   <x:dimension ref="B2:L21"/>
   <x:sheetViews>
-    <x:sheetView showGridLines="0" tabSelected="1" topLeftCell="A1" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
-      <x:selection activeCell="J2" activeCellId="0" sqref="J2:J3"/>
+    <x:sheetView showGridLines="0" topLeftCell="A1" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
+      <x:selection activeCell="P19" activeCellId="0" sqref="P19:P19"/>
     </x:sheetView>
   </x:sheetViews>
   <x:sheetFormatPr defaultColWidth="8.75" defaultRowHeight="20.100000000000001" customHeight="1"/>
@@ -7780,37 +7780,37 @@
         <x:v>71</x:v>
       </x:c>
       <x:c r="C2" s="4" t="s">
-        <x:v>85</x:v>
+        <x:v>99</x:v>
       </x:c>
       <x:c r="D2" s="25" t="s">
-        <x:v>53</x:v>
+        <x:v>81</x:v>
       </x:c>
       <x:c r="E2" s="25"/>
       <x:c r="F2" s="25"/>
       <x:c r="G2" s="25"/>
       <x:c r="H2" s="27" t="s">
-        <x:v>10</x:v>
+        <x:v>48</x:v>
       </x:c>
       <x:c r="I2" s="27"/>
       <x:c r="J2" s="14"/>
       <x:c r="K2" s="27" t="s">
-        <x:v>65</x:v>
+        <x:v>82</x:v>
       </x:c>
       <x:c r="L2" s="28"/>
     </x:row>
     <x:row r="3" spans="2:12" customHeight="1">
       <x:c r="B3" s="15" t="s">
-        <x:v>72</x:v>
+        <x:v>92</x:v>
       </x:c>
       <x:c r="C3" s="8" t="s">
-        <x:v>24</x:v>
+        <x:v>14</x:v>
       </x:c>
       <x:c r="D3" s="26"/>
       <x:c r="E3" s="26"/>
       <x:c r="F3" s="26"/>
       <x:c r="G3" s="26"/>
       <x:c r="H3" s="29" t="s">
-        <x:v>16</x:v>
+        <x:v>51</x:v>
       </x:c>
       <x:c r="I3" s="29"/>
       <x:c r="J3" s="21"/>
@@ -7821,7 +7821,7 @@
     </x:row>
     <x:row r="4" spans="2:12" customHeight="1">
       <x:c r="B4" s="17" t="s">
-        <x:v>57</x:v>
+        <x:v>78</x:v>
       </x:c>
       <x:c r="C4" s="23"/>
       <x:c r="D4" s="23"/>
@@ -7836,37 +7836,37 @@
     </x:row>
     <x:row r="5" spans="2:12" customHeight="1">
       <x:c r="B5" s="18" t="s">
-        <x:v>13</x:v>
+        <x:v>44</x:v>
       </x:c>
       <x:c r="C5" s="19" t="s">
-        <x:v>87</x:v>
+        <x:v>93</x:v>
       </x:c>
       <x:c r="D5" s="19" t="s">
-        <x:v>55</x:v>
+        <x:v>84</x:v>
       </x:c>
       <x:c r="E5" s="19" t="s">
-        <x:v>52</x:v>
+        <x:v>83</x:v>
       </x:c>
       <x:c r="F5" s="19" t="s">
-        <x:v>70</x:v>
+        <x:v>80</x:v>
       </x:c>
       <x:c r="G5" s="19" t="s">
-        <x:v>58</x:v>
+        <x:v>85</x:v>
       </x:c>
       <x:c r="H5" s="19" t="s">
-        <x:v>8</x:v>
+        <x:v>40</x:v>
       </x:c>
       <x:c r="I5" s="19" t="s">
-        <x:v>14</x:v>
+        <x:v>50</x:v>
       </x:c>
       <x:c r="J5" s="19" t="s">
-        <x:v>34</x:v>
+        <x:v>11</x:v>
       </x:c>
       <x:c r="K5" s="19" t="s">
-        <x:v>66</x:v>
+        <x:v>79</x:v>
       </x:c>
       <x:c r="L5" s="20" t="s">
-        <x:v>3</x:v>
+        <x:v>42</x:v>
       </x:c>
     </x:row>
     <x:row r="6" spans="2:12" customHeight="1">
@@ -7874,28 +7874,28 @@
         <x:v>1</x:v>
       </x:c>
       <x:c r="C6" s="3" t="s">
-        <x:v>84</x:v>
+        <x:v>101</x:v>
       </x:c>
       <x:c r="D6" s="22" t="s">
-        <x:v>1</x:v>
+        <x:v>38</x:v>
       </x:c>
       <x:c r="E6" s="4" t="s">
-        <x:v>33</x:v>
+        <x:v>10</x:v>
       </x:c>
       <x:c r="F6" s="22" t="s">
-        <x:v>83</x:v>
+        <x:v>91</x:v>
       </x:c>
       <x:c r="G6" s="4" t="s">
-        <x:v>93</x:v>
+        <x:v>55</x:v>
       </x:c>
       <x:c r="H6" s="4" t="s">
-        <x:v>43</x:v>
+        <x:v>20</x:v>
       </x:c>
       <x:c r="I6" s="4"/>
       <x:c r="J6" s="4"/>
       <x:c r="K6" s="4"/>
       <x:c r="L6" s="5" t="s">
-        <x:v>51</x:v>
+        <x:v>31</x:v>
       </x:c>
     </x:row>
     <x:row r="7" spans="2:12" customHeight="1">
@@ -7903,19 +7903,19 @@
         <x:v>2</x:v>
       </x:c>
       <x:c r="C7" s="7" t="s">
-        <x:v>0</x:v>
+        <x:v>37</x:v>
       </x:c>
       <x:c r="D7" s="22" t="s">
-        <x:v>1</x:v>
+        <x:v>38</x:v>
       </x:c>
       <x:c r="E7" s="8" t="s">
-        <x:v>31</x:v>
+        <x:v>4</x:v>
       </x:c>
       <x:c r="F7" s="22" t="s">
-        <x:v>83</x:v>
+        <x:v>91</x:v>
       </x:c>
       <x:c r="G7" s="8" t="s">
-        <x:v>40</x:v>
+        <x:v>25</x:v>
       </x:c>
       <x:c r="H7" s="8"/>
       <x:c r="I7" s="8"/>
@@ -7928,19 +7928,19 @@
         <x:v>3</x:v>
       </x:c>
       <x:c r="C8" s="7" t="s">
-        <x:v>56</x:v>
+        <x:v>73</x:v>
       </x:c>
       <x:c r="D8" s="22" t="s">
-        <x:v>1</x:v>
+        <x:v>38</x:v>
       </x:c>
       <x:c r="E8" s="8" t="s">
-        <x:v>46</x:v>
+        <x:v>34</x:v>
       </x:c>
       <x:c r="F8" s="22" t="s">
-        <x:v>83</x:v>
+        <x:v>91</x:v>
       </x:c>
       <x:c r="G8" s="8" t="s">
-        <x:v>40</x:v>
+        <x:v>25</x:v>
       </x:c>
       <x:c r="H8" s="8"/>
       <x:c r="I8" s="8"/>
@@ -7953,19 +7953,19 @@
         <x:v>4</x:v>
       </x:c>
       <x:c r="C9" s="7" t="s">
-        <x:v>64</x:v>
+        <x:v>77</x:v>
       </x:c>
       <x:c r="D9" s="22" t="s">
-        <x:v>37</x:v>
+        <x:v>26</x:v>
       </x:c>
       <x:c r="E9" s="8" t="s">
-        <x:v>26</x:v>
+        <x:v>9</x:v>
       </x:c>
       <x:c r="F9" s="4" t="s">
-        <x:v>42</x:v>
+        <x:v>18</x:v>
       </x:c>
       <x:c r="G9" s="8" t="s">
-        <x:v>40</x:v>
+        <x:v>25</x:v>
       </x:c>
       <x:c r="H9" s="8"/>
       <x:c r="I9" s="8"/>
@@ -7978,19 +7978,19 @@
         <x:v>5</x:v>
       </x:c>
       <x:c r="C10" s="7" t="s">
-        <x:v>80</x:v>
+        <x:v>94</x:v>
       </x:c>
       <x:c r="D10" s="4" t="s">
-        <x:v>28</x:v>
+        <x:v>5</x:v>
       </x:c>
       <x:c r="E10" s="8" t="s">
-        <x:v>30</x:v>
+        <x:v>13</x:v>
       </x:c>
       <x:c r="F10" s="8" t="s">
-        <x:v>23</x:v>
+        <x:v>6</x:v>
       </x:c>
       <x:c r="G10" s="8" t="s">
-        <x:v>40</x:v>
+        <x:v>25</x:v>
       </x:c>
       <x:c r="H10" s="8"/>
       <x:c r="I10" s="8"/>
